--- a/data_STK_astrogator/Processed_data/original/Lumelite3_final_summary.xlsx
+++ b/data_STK_astrogator/Processed_data/original/Lumelite3_final_summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngengton\Documents\GitHub\FORMFLYT\data_STK_astrogator\Processed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngengton\Documents\GitHub\FORMFLYT\data_STK_astrogator\Processed_data\original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86E184B-C675-4116-9190-D5C27595B7F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3204C49C-B675-4550-9E90-236202E37087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13190" yWindow="1480" windowWidth="17280" windowHeight="8960" xr2:uid="{3F315371-8837-4D5D-BD74-CBA66D1BE71D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Segment Name</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>RIC Z Thrust Component</t>
+  </si>
+  <si>
+    <t>ECI X Thrust Component</t>
+  </si>
+  <si>
+    <t>ECI Y Thrust Component</t>
+  </si>
+  <si>
+    <t>ECI Z Thrust Component</t>
   </si>
 </sst>
 </file>
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A013192-3ACF-47ED-BCE3-4BACA6CC0FDB}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,7 +447,7 @@
     <col min="5" max="5" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +478,17 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -487,7 +505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -504,7 +522,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -535,8 +553,17 @@
       <c r="J4">
         <v>-0.92391000000000001</v>
       </c>
+      <c r="K4">
+        <v>-0.50829999999999997</v>
+      </c>
+      <c r="L4">
+        <v>9.3049999999999994E-2</v>
+      </c>
+      <c r="M4">
+        <v>-0.85609999999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -553,7 +580,7 @@
         <v>1209600</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -584,8 +611,17 @@
       <c r="J6">
         <v>0.73871799999999999</v>
       </c>
+      <c r="K6">
+        <v>-0.38536999999999999</v>
+      </c>
+      <c r="L6">
+        <v>-0.18610757999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.90379600000000004</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
